--- a/P4_CreateReportDB/top_employee_companies.xlsx
+++ b/P4_CreateReportDB/top_employee_companies.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\become-business-analyst\P4_CreateReportDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{702B8BEB-0D2C-41A8-8DF6-2E5F157E848B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331FEF03-494B-45CC-A9A6-5531E596FA8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="top_employee_companies" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -840,9 +840,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1198,11 +1201,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection sqref="A1:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1211,382 +1214,382 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
